--- a/src/01_프로젝트 메서드 설명 Ver1.1.xlsx
+++ b/src/01_프로젝트 메서드 설명 Ver1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MoneyManager_for_intel\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C2C39-A021-4CC0-9492-C3B0C2294E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC8E92B-E667-4E4D-9541-0FBC916DEB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="969" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5833,7 +5833,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5879,6 +5879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5985,7 +5991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6100,6 +6106,72 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6163,68 +6235,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6589,18 +6601,18 @@
   <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="H3" sqref="H3"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="1.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="1.5" style="48" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="44.125" style="8" bestFit="1" customWidth="1"/>
@@ -6619,36 +6631,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="41.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:21" ht="17.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="59"/>
-      <c r="G2" s="47" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="38"/>
+      <c r="G2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
         <v>17</v>
@@ -6659,14 +6671,14 @@
         <v>18</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="6"/>
@@ -6677,11 +6689,11 @@
         <v>19</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="70" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="50" t="s">
         <v>354</v>
       </c>
       <c r="F4" s="8"/>
@@ -6697,66 +6709,66 @@
         <v>23</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="60"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53" t="s">
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="9" customFormat="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="11" t="s">
         <v>7</v>
       </c>
@@ -6769,23 +6781,23 @@
       <c r="P7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="53"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="51" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="23" t="s">
@@ -6825,14 +6837,14 @@
       <c r="U8" s="31"/>
     </row>
     <row r="9" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="62"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="72" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="81" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="23"/>
@@ -6858,14 +6870,14 @@
       <c r="U9" s="31"/>
     </row>
     <row r="10" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="62"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="72" t="s">
+      <c r="E10" s="64"/>
+      <c r="F10" s="51" t="s">
         <v>282</v>
       </c>
       <c r="G10" s="23"/>
@@ -6895,13 +6907,13 @@
       <c r="U10" s="31"/>
     </row>
     <row r="11" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="23" t="s">
         <v>285</v>
       </c>
@@ -6932,14 +6944,14 @@
       <c r="U11" s="31"/>
     </row>
     <row r="12" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="81" t="s">
         <v>349</v>
       </c>
       <c r="G12" s="23"/>
@@ -6977,14 +6989,14 @@
       <c r="U12" s="31"/>
     </row>
     <row r="13" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="75" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="54" t="s">
         <v>356</v>
       </c>
       <c r="G13" s="23"/>
@@ -7004,14 +7016,14 @@
       <c r="U13" s="31"/>
     </row>
     <row r="14" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="75" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="75" t="s">
+      <c r="E14" s="64"/>
+      <c r="F14" s="54" t="s">
         <v>357</v>
       </c>
       <c r="G14" s="23"/>
@@ -7031,14 +7043,14 @@
       <c r="U14" s="31"/>
     </row>
     <row r="15" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="75" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="54" t="s">
         <v>358</v>
       </c>
       <c r="G15" s="23"/>
@@ -7058,11 +7070,11 @@
       <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:21" s="16" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="43"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="25"/>
@@ -7081,18 +7093,18 @@
       <c r="U16" s="31"/>
     </row>
     <row r="17" spans="1:21" ht="18.95" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="51" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -7132,14 +7144,14 @@
       <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="51" t="s">
         <v>141</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -7179,14 +7191,14 @@
       <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="63"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="72" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="51" t="s">
         <v>142</v>
       </c>
       <c r="G19" s="23" t="s">
@@ -7226,14 +7238,14 @@
       <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" s="9" customFormat="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="52" t="s">
         <v>144</v>
       </c>
       <c r="G20" s="23" t="s">
@@ -7273,14 +7285,14 @@
       <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:21" s="9" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="52" t="s">
         <v>145</v>
       </c>
       <c r="G21" s="23" t="s">
@@ -7320,11 +7332,11 @@
       <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" s="9" customFormat="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="63"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="33"/>
       <c r="G22" s="23"/>
       <c r="H22" s="25"/>
@@ -7343,14 +7355,14 @@
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="63"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="52" t="s">
         <v>146</v>
       </c>
       <c r="G23" s="23" t="s">
@@ -7390,14 +7402,14 @@
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" s="9" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="65"/>
+      <c r="F24" s="52" t="s">
         <v>147</v>
       </c>
       <c r="G24" s="23" t="s">
@@ -7437,18 +7449,18 @@
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="52" t="s">
         <v>148</v>
       </c>
       <c r="G25" s="23" t="s">
@@ -7488,14 +7500,14 @@
       <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="79" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="58" t="s">
         <v>371</v>
       </c>
       <c r="G26" s="23" t="s">
@@ -7535,14 +7547,14 @@
       <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="73" t="s">
+      <c r="E27" s="64"/>
+      <c r="F27" s="52" t="s">
         <v>149</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -7582,14 +7594,14 @@
       <c r="U27" s="32"/>
     </row>
     <row r="28" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="73" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="52" t="s">
         <v>150</v>
       </c>
       <c r="G28" s="23" t="s">
@@ -7629,14 +7641,14 @@
       <c r="U28" s="32"/>
     </row>
     <row r="29" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="73" t="s">
+      <c r="E29" s="65"/>
+      <c r="F29" s="52" t="s">
         <v>151</v>
       </c>
       <c r="G29" s="23" t="s">
@@ -7676,18 +7688,18 @@
       <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="18.95" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="52" t="s">
         <v>152</v>
       </c>
       <c r="G30" s="23" t="s">
@@ -7727,14 +7739,14 @@
       <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="73" t="s">
+      <c r="E31" s="64"/>
+      <c r="F31" s="52" t="s">
         <v>153</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -7774,14 +7786,14 @@
       <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="64"/>
+      <c r="F32" s="52" t="s">
         <v>154</v>
       </c>
       <c r="G32" s="23" t="s">
@@ -7821,14 +7833,14 @@
       <c r="U32" s="32"/>
     </row>
     <row r="33" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="73" t="s">
+      <c r="E33" s="64"/>
+      <c r="F33" s="52" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="23" t="s">
@@ -7868,14 +7880,14 @@
       <c r="U33" s="32"/>
     </row>
     <row r="34" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="73" t="s">
+      <c r="E34" s="65"/>
+      <c r="F34" s="52" t="s">
         <v>156</v>
       </c>
       <c r="G34" s="23" t="s">
@@ -7915,18 +7927,18 @@
       <c r="U34" s="32"/>
     </row>
     <row r="35" spans="1:21" ht="18.95" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="67"/>
+      <c r="B35" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="53" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="23"/>
@@ -7964,14 +7976,14 @@
       <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="73" t="s">
+      <c r="E36" s="64"/>
+      <c r="F36" s="52" t="s">
         <v>158</v>
       </c>
       <c r="G36" s="23"/>
@@ -8009,14 +8021,14 @@
       <c r="U36" s="32"/>
     </row>
     <row r="37" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="74" t="s">
+      <c r="E37" s="64"/>
+      <c r="F37" s="53" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="23"/>
@@ -8054,16 +8066,16 @@
       <c r="U37" s="32"/>
     </row>
     <row r="38" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="73" t="s">
+      <c r="E38" s="64"/>
+      <c r="F38" s="52" t="s">
         <v>160</v>
       </c>
       <c r="G38" s="17"/>
@@ -8101,14 +8113,14 @@
       <c r="U38" s="32"/>
     </row>
     <row r="39" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="73" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="52" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="17"/>
@@ -8146,14 +8158,14 @@
       <c r="U39" s="32"/>
     </row>
     <row r="40" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="66"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="73" t="s">
+      <c r="E40" s="64"/>
+      <c r="F40" s="52" t="s">
         <v>162</v>
       </c>
       <c r="G40" s="35"/>
@@ -8193,12 +8205,12 @@
     <row r="41" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="75" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="78" t="s">
+      <c r="E41" s="64"/>
+      <c r="F41" s="57" t="s">
         <v>367</v>
       </c>
       <c r="G41" s="35"/>
@@ -8220,12 +8232,12 @@
     <row r="42" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="75" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="64"/>
+      <c r="F42" s="56" t="s">
         <v>370</v>
       </c>
       <c r="G42" s="35"/>
@@ -8247,11 +8259,11 @@
     <row r="43" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="45" t="s">
         <v>368</v>
       </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="43"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -8272,14 +8284,14 @@
     <row r="44" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="67"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G44" s="35"/>
@@ -8319,12 +8331,12 @@
     <row r="45" spans="1:21" ht="18.95" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="67"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="73" t="s">
+      <c r="E45" s="61"/>
+      <c r="F45" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G45" s="34"/>
@@ -8364,12 +8376,12 @@
     <row r="46" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="67"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="74" t="s">
+      <c r="E46" s="61"/>
+      <c r="F46" s="52" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="34"/>
@@ -8409,12 +8421,12 @@
     <row r="47" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="67"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="73" t="s">
+      <c r="E47" s="61"/>
+      <c r="F47" s="52" t="s">
         <v>166</v>
       </c>
       <c r="G47" s="34"/>
@@ -8454,12 +8466,12 @@
     <row r="48" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="67"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="73" t="s">
+      <c r="E48" s="61"/>
+      <c r="F48" s="52" t="s">
         <v>167</v>
       </c>
       <c r="G48" s="34"/>
@@ -8499,12 +8511,12 @@
     <row r="49" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="67"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="73" t="s">
+      <c r="E49" s="61"/>
+      <c r="F49" s="52" t="s">
         <v>168</v>
       </c>
       <c r="G49" s="34"/>
@@ -8544,12 +8556,12 @@
     <row r="50" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="75" t="s">
+      <c r="C50" s="46"/>
+      <c r="D50" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="78" t="s">
+      <c r="E50" s="61"/>
+      <c r="F50" s="57" t="s">
         <v>367</v>
       </c>
       <c r="G50" s="34"/>
@@ -8571,9 +8583,9 @@
     <row r="51" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="67"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="23"/>
-      <c r="E51" s="40"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
@@ -8594,14 +8606,14 @@
     <row r="52" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="67"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F52" s="59" t="s">
         <v>169</v>
       </c>
       <c r="G52" s="34"/>
@@ -8641,12 +8653,12 @@
     <row r="53" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="67"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="73" t="s">
+      <c r="E53" s="61"/>
+      <c r="F53" s="52" t="s">
         <v>170</v>
       </c>
       <c r="G53" s="34"/>
@@ -8686,12 +8698,12 @@
     <row r="54" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="67"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="34" t="s">
+      <c r="E54" s="61"/>
+      <c r="F54" s="59" t="s">
         <v>171</v>
       </c>
       <c r="G54" s="34"/>
@@ -8731,12 +8743,12 @@
     <row r="55" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="67"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="73" t="s">
+      <c r="E55" s="61"/>
+      <c r="F55" s="52" t="s">
         <v>172</v>
       </c>
       <c r="G55" s="34"/>
@@ -8776,12 +8788,12 @@
     <row r="56" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="68"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="73" t="s">
+      <c r="E56" s="61"/>
+      <c r="F56" s="52" t="s">
         <v>173</v>
       </c>
       <c r="G56" s="34"/>
@@ -8821,12 +8833,12 @@
     <row r="57" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="68"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="73" t="s">
+      <c r="E57" s="62"/>
+      <c r="F57" s="52" t="s">
         <v>174</v>
       </c>
       <c r="G57" s="34"/>
@@ -8866,14 +8878,14 @@
     <row r="58" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="68"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="59" t="s">
         <v>175</v>
       </c>
       <c r="G58" s="34"/>
@@ -8913,12 +8925,12 @@
     <row r="59" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="68"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="73" t="s">
+      <c r="E59" s="61"/>
+      <c r="F59" s="52" t="s">
         <v>176</v>
       </c>
       <c r="G59" s="34"/>
@@ -8958,12 +8970,12 @@
     <row r="60" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="68"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="34" t="s">
+      <c r="E60" s="61"/>
+      <c r="F60" s="59" t="s">
         <v>177</v>
       </c>
       <c r="G60" s="34"/>
@@ -9003,12 +9015,12 @@
     <row r="61" spans="1:21" ht="18.95" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="68"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="73" t="s">
+      <c r="E61" s="61"/>
+      <c r="F61" s="52" t="s">
         <v>178</v>
       </c>
       <c r="G61" s="34"/>
@@ -9048,12 +9060,12 @@
     <row r="62" spans="1:21" ht="18.95" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="67"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="73" t="s">
+      <c r="E62" s="61"/>
+      <c r="F62" s="52" t="s">
         <v>179</v>
       </c>
       <c r="G62" s="34"/>
@@ -9093,12 +9105,12 @@
     <row r="63" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="67"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="73" t="s">
+      <c r="E63" s="61"/>
+      <c r="F63" s="52" t="s">
         <v>180</v>
       </c>
       <c r="G63" s="34"/>
@@ -9138,12 +9150,12 @@
     <row r="64" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="75" t="s">
+      <c r="C64" s="46"/>
+      <c r="D64" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="77" t="s">
+      <c r="E64" s="61"/>
+      <c r="F64" s="56" t="s">
         <v>364</v>
       </c>
       <c r="G64" s="34"/>
@@ -9165,12 +9177,12 @@
     <row r="65" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="75" t="s">
+      <c r="C65" s="46"/>
+      <c r="D65" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="77" t="s">
+      <c r="E65" s="61"/>
+      <c r="F65" s="56" t="s">
         <v>365</v>
       </c>
       <c r="G65" s="34"/>
@@ -9192,12 +9204,12 @@
     <row r="66" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="75" t="s">
+      <c r="C66" s="46"/>
+      <c r="D66" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="77" t="s">
+      <c r="E66" s="61"/>
+      <c r="F66" s="56" t="s">
         <v>366</v>
       </c>
       <c r="G66" s="34"/>
@@ -9219,9 +9231,9 @@
     <row r="67" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="67"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="23"/>
-      <c r="E67" s="40"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -9242,11 +9254,11 @@
     <row r="68" spans="1:21" ht="18.95" customHeight="1">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="67"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="60" t="s">
         <v>85</v>
       </c>
       <c r="F68" s="34" t="s">
@@ -9289,12 +9301,12 @@
     <row r="69" spans="1:21" ht="18.95" customHeight="1">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="67"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="73" t="s">
+      <c r="E69" s="61"/>
+      <c r="F69" s="52" t="s">
         <v>182</v>
       </c>
       <c r="G69" s="34"/>
@@ -9334,11 +9346,11 @@
     <row r="70" spans="1:21" ht="18.95" customHeight="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="68"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E70" s="39"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="34" t="s">
         <v>183</v>
       </c>
@@ -9379,12 +9391,12 @@
     <row r="71" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="68"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="E71" s="39"/>
-      <c r="F71" s="73" t="s">
+      <c r="E71" s="61"/>
+      <c r="F71" s="52" t="s">
         <v>184</v>
       </c>
       <c r="G71" s="34"/>
@@ -9424,12 +9436,12 @@
     <row r="72" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="12"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="61"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="73" t="s">
+      <c r="E72" s="61"/>
+      <c r="F72" s="52" t="s">
         <v>185</v>
       </c>
       <c r="G72" s="34"/>
@@ -9469,12 +9481,12 @@
     <row r="73" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="68"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="73" t="s">
+      <c r="E73" s="62"/>
+      <c r="F73" s="52" t="s">
         <v>186</v>
       </c>
       <c r="G73" s="34"/>
@@ -9514,11 +9526,11 @@
     <row r="74" spans="1:21" s="7" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="68"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="60" t="s">
         <v>86</v>
       </c>
       <c r="F74" s="34" t="s">
@@ -9561,11 +9573,11 @@
     <row r="75" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="68"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="E75" s="39"/>
+      <c r="E75" s="61"/>
       <c r="F75" s="34" t="s">
         <v>188</v>
       </c>
@@ -9606,12 +9618,12 @@
     <row r="76" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="68"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="E76" s="39"/>
-      <c r="F76" s="73" t="s">
+      <c r="E76" s="61"/>
+      <c r="F76" s="52" t="s">
         <v>189</v>
       </c>
       <c r="G76" s="34"/>
@@ -9651,12 +9663,12 @@
     <row r="77" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="68"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="E77" s="39"/>
-      <c r="F77" s="73" t="s">
+      <c r="E77" s="61"/>
+      <c r="F77" s="52" t="s">
         <v>190</v>
       </c>
       <c r="G77" s="34"/>
@@ -9696,12 +9708,12 @@
     <row r="78" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="68"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="73" t="s">
+      <c r="E78" s="61"/>
+      <c r="F78" s="52" t="s">
         <v>191</v>
       </c>
       <c r="G78" s="34"/>
@@ -9741,12 +9753,12 @@
     <row r="79" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="68"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="E79" s="39"/>
-      <c r="F79" s="73" t="s">
+      <c r="E79" s="61"/>
+      <c r="F79" s="52" t="s">
         <v>192</v>
       </c>
       <c r="G79" s="34"/>
@@ -9786,12 +9798,12 @@
     <row r="80" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="75" t="s">
+      <c r="C80" s="47"/>
+      <c r="D80" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E80" s="39"/>
-      <c r="F80" s="77" t="s">
+      <c r="E80" s="61"/>
+      <c r="F80" s="56" t="s">
         <v>359</v>
       </c>
       <c r="G80" s="34"/>
@@ -9813,12 +9825,12 @@
     <row r="81" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="76" t="s">
+      <c r="C81" s="47"/>
+      <c r="D81" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="77" t="s">
+      <c r="E81" s="61"/>
+      <c r="F81" s="56" t="s">
         <v>360</v>
       </c>
       <c r="G81" s="34"/>
@@ -9840,12 +9852,12 @@
     <row r="82" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="76" t="s">
+      <c r="C82" s="47"/>
+      <c r="D82" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E82" s="39"/>
-      <c r="F82" s="77" t="s">
+      <c r="E82" s="61"/>
+      <c r="F82" s="56" t="s">
         <v>361</v>
       </c>
       <c r="G82" s="34"/>
@@ -9867,12 +9879,12 @@
     <row r="83" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="76" t="s">
+      <c r="C83" s="47"/>
+      <c r="D83" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E83" s="39"/>
-      <c r="F83" s="77" t="s">
+      <c r="E83" s="61"/>
+      <c r="F83" s="56" t="s">
         <v>362</v>
       </c>
       <c r="G83" s="34"/>
@@ -9894,12 +9906,12 @@
     <row r="84" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="76" t="s">
+      <c r="C84" s="47"/>
+      <c r="D84" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E84" s="39"/>
-      <c r="F84" s="77" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="56" t="s">
         <v>363</v>
       </c>
       <c r="G84" s="34"/>
@@ -9921,9 +9933,9 @@
     <row r="85" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="68"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="23"/>
-      <c r="E85" s="40"/>
+      <c r="E85" s="62"/>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
@@ -9944,11 +9956,11 @@
     <row r="86" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="68"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="60" t="s">
         <v>87</v>
       </c>
       <c r="F86" s="34" t="s">
@@ -9991,11 +10003,11 @@
     <row r="87" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="68"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="E87" s="39"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="34" t="s">
         <v>194</v>
       </c>
@@ -10036,12 +10048,12 @@
     <row r="88" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="68"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="39"/>
-      <c r="F88" s="73" t="s">
+      <c r="E88" s="61"/>
+      <c r="F88" s="52" t="s">
         <v>195</v>
       </c>
       <c r="G88" s="34"/>
@@ -10081,12 +10093,12 @@
     <row r="89" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="68"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="E89" s="39"/>
-      <c r="F89" s="73" t="s">
+      <c r="E89" s="61"/>
+      <c r="F89" s="52" t="s">
         <v>196</v>
       </c>
       <c r="G89" s="34"/>
@@ -10126,12 +10138,12 @@
     <row r="90" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="68"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="E90" s="39"/>
-      <c r="F90" s="73" t="s">
+      <c r="E90" s="61"/>
+      <c r="F90" s="52" t="s">
         <v>197</v>
       </c>
       <c r="G90" s="34"/>
@@ -10171,12 +10183,12 @@
     <row r="91" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="68"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="E91" s="39"/>
-      <c r="F91" s="73" t="s">
+      <c r="E91" s="61"/>
+      <c r="F91" s="52" t="s">
         <v>198</v>
       </c>
       <c r="G91" s="34"/>
@@ -10216,12 +10228,12 @@
     <row r="92" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="76" t="s">
+      <c r="C92" s="47"/>
+      <c r="D92" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="77" t="s">
+      <c r="E92" s="61"/>
+      <c r="F92" s="56" t="s">
         <v>362</v>
       </c>
       <c r="G92" s="34"/>
@@ -10243,10 +10255,10 @@
     <row r="93" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="77"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
       <c r="I93" s="34"/>
@@ -10266,9 +10278,9 @@
     <row r="94" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="68"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="35"/>
-      <c r="E94" s="39"/>
+      <c r="E94" s="61"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
@@ -10289,9 +10301,9 @@
     <row r="95" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="68"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="39"/>
+      <c r="E95" s="61"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -10312,9 +10324,9 @@
     <row r="96" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="68"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="35"/>
-      <c r="E96" s="40"/>
+      <c r="E96" s="62"/>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
@@ -10335,9 +10347,9 @@
     <row r="97" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="68"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="35"/>
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="60" t="s">
         <v>278</v>
       </c>
       <c r="F97" s="34" t="s">
@@ -10362,9 +10374,9 @@
     <row r="98" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
-      <c r="C98" s="68"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="35"/>
-      <c r="E98" s="39"/>
+      <c r="E98" s="61"/>
       <c r="F98" s="36"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
@@ -10385,9 +10397,9 @@
     <row r="99" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
-      <c r="C99" s="68"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="35"/>
-      <c r="E99" s="39"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="36"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
@@ -10408,9 +10420,9 @@
     <row r="100" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
-      <c r="C100" s="68"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="35"/>
-      <c r="E100" s="40"/>
+      <c r="E100" s="62"/>
       <c r="F100" s="36"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
@@ -10431,9 +10443,9 @@
     <row r="101" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
-      <c r="C101" s="68"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="35"/>
-      <c r="E101" s="38" t="s">
+      <c r="E101" s="60" t="s">
         <v>279</v>
       </c>
       <c r="F101" s="37" t="s">
@@ -10458,9 +10470,9 @@
     <row r="102" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
-      <c r="C102" s="68"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="35"/>
-      <c r="E102" s="39"/>
+      <c r="E102" s="61"/>
       <c r="F102" s="36"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
@@ -10481,9 +10493,9 @@
     <row r="103" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
-      <c r="C103" s="68"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="35"/>
-      <c r="E103" s="39"/>
+      <c r="E103" s="61"/>
       <c r="F103" s="36"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
@@ -10504,9 +10516,9 @@
     <row r="104" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="68"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="35"/>
-      <c r="E104" s="39"/>
+      <c r="E104" s="61"/>
       <c r="F104" s="36"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -10527,9 +10539,9 @@
     <row r="105" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="68"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="40"/>
+      <c r="E105" s="62"/>
       <c r="F105" s="36"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
@@ -10550,7 +10562,7 @@
     <row r="106" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="68"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="27"/>
@@ -10569,7 +10581,7 @@
     <row r="107" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="68"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="27"/>
@@ -10588,7 +10600,7 @@
     <row r="108" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="68"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="27"/>
@@ -10607,7 +10619,7 @@
     <row r="109" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
-      <c r="C109" s="68"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="27"/>
@@ -10626,7 +10638,7 @@
     <row r="110" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="68"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="27"/>
@@ -10645,7 +10657,7 @@
     <row r="111" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="68"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="27"/>
@@ -10664,7 +10676,7 @@
     <row r="112" spans="1:21" s="9" customFormat="1" ht="18.95" customHeight="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="68"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="27"/>
@@ -10740,34 +10752,34 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="2:7" ht="63.95" customHeight="1">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:7" ht="74.099999999999994" customHeight="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
